--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_37.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_37.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_0</t>
+          <t>model_1_37_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9475202170169289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7483798331823288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7834087263417062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9251681263135818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1839684345811839</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173904853496756</v>
+        <v>1.682585214114102</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7747344271920935</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.3103919267695983</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.050730596792298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.428915416581386</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9285381678528394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4356704056344267</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6644837721437</v>
+        <v>37.38598217455792</v>
       </c>
       <c r="O2" t="n">
-        <v>285.9996563153601</v>
+        <v>74.35056576278373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_1</t>
+          <t>model_1_37_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9475754885641364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7482784605345129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7830323570350287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9255648906227694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1837746795875719</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173904853496756</v>
+        <v>1.683263093476825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7760806783789324</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.3087462050692675</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.052861854082181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4286894908760557</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9286134312362708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4354409218250804</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6644837721437</v>
+        <v>37.3880896784548</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9996563153601</v>
+        <v>74.35267326668063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_2</t>
+          <t>model_1_37_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9476306698470568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7481767417527456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7826504851300289</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9259658528433184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1835812410163736</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173904853496756</v>
+        <v>1.683943287438875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7774466120409116</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.3070830710320314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.055030828370173</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4284638152940964</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9286885717066306</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.435211692078298</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6644837721437</v>
+        <v>37.39019595825842</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9996563153601</v>
+        <v>74.35477954648424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_3</t>
+          <t>model_1_37_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9476859400518137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7480739082700647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7822629712699526</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9263690444382096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1833874907287362</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173904853496756</v>
+        <v>1.684630935411066</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7788327266490599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.3054106898683581</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.057213723419741</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4282376568317366</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9287638332620443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4349819718462315</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6644837721437</v>
+        <v>37.39230785814394</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9996563153601</v>
+        <v>74.35689144636976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_4</t>
+          <t>model_1_37_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.948229093970634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7474674178434474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7783612461692495</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9303074216422168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1814834589187297</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173904853496756</v>
+        <v>1.688686539686488</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7927889710992548</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.2890748635890391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.078042286060606</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4260087545094933</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9295034471089485</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4327179665404978</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6644837721437</v>
+        <v>37.41318152972863</v>
       </c>
       <c r="O6" t="n">
-        <v>285.9996563153601</v>
+        <v>74.37776511795445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_5</t>
+          <t>model_1_37_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9483414647819937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7472535213124996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.777465654737258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9311842163559262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1810895418504156</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173904853496756</v>
+        <v>1.690116866773839</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7959924497221136</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.2854380443145398</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.08287031416936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4255461688823149</v>
       </c>
       <c r="L7" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9296564626818637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4322480956521073</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6644837721437</v>
+        <v>37.41752732737454</v>
       </c>
       <c r="O7" t="n">
-        <v>285.9996563153601</v>
+        <v>74.38211091560036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_6</t>
+          <t>model_1_37_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9483965369263113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7471337544362407</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7770126531885954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9316223751083303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1808964858657442</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173904853496756</v>
+        <v>1.690917748426857</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7976128099951408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.2836206243744804</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.085304998959921</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4253192752106872</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9297314545379558</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4320176286319619</v>
       </c>
       <c r="N8" t="n">
-        <v>144.6644837721437</v>
+        <v>37.41966062521693</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9996563153601</v>
+        <v>74.38424421344276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_7</t>
+          <t>model_1_37_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9503256625729714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7400350481851428</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7457623889340419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9546801470184935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1741339154976284</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173904853496756</v>
+        <v>1.738386829814487</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.9093931932392463</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.1879802789222135</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.285734427098146</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4172935603356807</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9323583490355355</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4238655167704456</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6644837721437</v>
+        <v>37.4958612929673</v>
       </c>
       <c r="O9" t="n">
-        <v>285.9996563153601</v>
+        <v>74.46044488119313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_8</t>
+          <t>model_1_37_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9503268721858364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7395348063130255</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7438125401371369</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9556774663054708</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1741296751869298</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173904853496756</v>
+        <v>1.741731949516736</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.9163676893270464</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.1838435409275645</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.296409448654536</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4172884795760959</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9323599961679475</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4238603559939763</v>
       </c>
       <c r="N10" t="n">
-        <v>144.6644837721437</v>
+        <v>37.49590999528144</v>
       </c>
       <c r="O10" t="n">
-        <v>285.9996563153601</v>
+        <v>74.46049358350726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_9</t>
+          <t>model_1_37_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9503193369348117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7390615088316036</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7417638092123295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9991689282162945</v>
+        <v>0.9566791286770744</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1741560900891339</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173904853496756</v>
+        <v>1.744896891954339</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.9236958810528376</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00133836181274153</v>
+        <v>0.179688788438037</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.307343323352906</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.41732012902463</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9323497354005947</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.423892503889687</v>
       </c>
       <c r="N11" t="n">
-        <v>144.6644837721437</v>
+        <v>37.49560662483236</v>
       </c>
       <c r="O11" t="n">
-        <v>285.9996563153601</v>
+        <v>74.46019021305818</v>
       </c>
     </row>
   </sheetData>
